--- a/T&C_Templates.xlsx
+++ b/T&C_Templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazan/Desktop/HALTON WORK/HaltonUK2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF9B447-8EF9-BD48-9176-CF495FD69FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA43F2A-D172-FD47-B209-0BE536CB77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>89083</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>155323</xdr:rowOff>
+      <xdr:rowOff>100503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,12 +443,12 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
